--- a/test/CPU_SUM.xlsx
+++ b/test/CPU_SUM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\홍익과학기술\Desktop\Exel_aZ\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pp\Desktop\Exel_aZ\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F0479F2-FCAC-4D7E-B4E5-A1A9A319CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5E85FCF-160D-4A06-861F-565618B602C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{38BA0DC7-D845-4B19-9766-3680A5E69C2A}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{DD8FE0F4-86DA-485F-9E49-E1A84F951482}"/>
   </bookViews>
   <sheets>
     <sheet name="CPU_ALL" sheetId="2" r:id="rId1"/>
@@ -561,7 +561,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8A31-4537-BDC9-06CF38C38C7C}"/>
+              <c16:uniqueId val="{00000000-B591-4BBB-AEC6-7FDF404906BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -936,7 +936,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8A31-4537-BDC9-06CF38C38C7C}"/>
+              <c16:uniqueId val="{00000001-B591-4BBB-AEC6-7FDF404906BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1311,7 +1311,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8A31-4537-BDC9-06CF38C38C7C}"/>
+              <c16:uniqueId val="{00000002-B591-4BBB-AEC6-7FDF404906BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1686,7 +1686,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8A31-4537-BDC9-06CF38C38C7C}"/>
+              <c16:uniqueId val="{00000003-B591-4BBB-AEC6-7FDF404906BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2061,7 +2061,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8A31-4537-BDC9-06CF38C38C7C}"/>
+              <c16:uniqueId val="{00000004-B591-4BBB-AEC6-7FDF404906BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2268,7 +2268,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8A31-4537-BDC9-06CF38C38C7C}"/>
+              <c16:uniqueId val="{00000005-B591-4BBB-AEC6-7FDF404906BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2784,7 +2784,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0C59-4B9C-AB5E-1209B73B88A6}"/>
+              <c16:uniqueId val="{00000000-739A-496E-B1E7-046164BB9BEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3159,7 +3159,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0C59-4B9C-AB5E-1209B73B88A6}"/>
+              <c16:uniqueId val="{00000001-739A-496E-B1E7-046164BB9BEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3534,7 +3534,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0C59-4B9C-AB5E-1209B73B88A6}"/>
+              <c16:uniqueId val="{00000002-739A-496E-B1E7-046164BB9BEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3909,7 +3909,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0C59-4B9C-AB5E-1209B73B88A6}"/>
+              <c16:uniqueId val="{00000003-739A-496E-B1E7-046164BB9BEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4284,7 +4284,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0C59-4B9C-AB5E-1209B73B88A6}"/>
+              <c16:uniqueId val="{00000004-739A-496E-B1E7-046164BB9BEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4491,7 +4491,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0C59-4B9C-AB5E-1209B73B88A6}"/>
+              <c16:uniqueId val="{00000005-739A-496E-B1E7-046164BB9BEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5007,7 +5007,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AEFE-4196-BA18-DE9CE459152E}"/>
+              <c16:uniqueId val="{00000000-6A56-4A33-AE79-DFF989FFC774}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5382,7 +5382,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AEFE-4196-BA18-DE9CE459152E}"/>
+              <c16:uniqueId val="{00000001-6A56-4A33-AE79-DFF989FFC774}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5757,7 +5757,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AEFE-4196-BA18-DE9CE459152E}"/>
+              <c16:uniqueId val="{00000002-6A56-4A33-AE79-DFF989FFC774}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6132,7 +6132,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AEFE-4196-BA18-DE9CE459152E}"/>
+              <c16:uniqueId val="{00000003-6A56-4A33-AE79-DFF989FFC774}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6507,7 +6507,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AEFE-4196-BA18-DE9CE459152E}"/>
+              <c16:uniqueId val="{00000004-6A56-4A33-AE79-DFF989FFC774}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6714,7 +6714,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-AEFE-4196-BA18-DE9CE459152E}"/>
+              <c16:uniqueId val="{00000005-6A56-4A33-AE79-DFF989FFC774}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7230,7 +7230,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3A8B-4028-89CF-AAEB1C608F78}"/>
+              <c16:uniqueId val="{00000000-4B69-4463-9952-E0043A28AEA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7605,7 +7605,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3A8B-4028-89CF-AAEB1C608F78}"/>
+              <c16:uniqueId val="{00000001-4B69-4463-9952-E0043A28AEA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7980,7 +7980,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3A8B-4028-89CF-AAEB1C608F78}"/>
+              <c16:uniqueId val="{00000002-4B69-4463-9952-E0043A28AEA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8355,7 +8355,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3A8B-4028-89CF-AAEB1C608F78}"/>
+              <c16:uniqueId val="{00000003-4B69-4463-9952-E0043A28AEA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8730,7 +8730,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3A8B-4028-89CF-AAEB1C608F78}"/>
+              <c16:uniqueId val="{00000004-4B69-4463-9952-E0043A28AEA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8937,7 +8937,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3A8B-4028-89CF-AAEB1C608F78}"/>
+              <c16:uniqueId val="{00000005-4B69-4463-9952-E0043A28AEA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9055,15 +9055,15 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>79248</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>220979</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCA8A97-84FD-44E4-82DA-48CC57F833D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00DC352-B68F-478D-9CCB-EE472226FAB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9098,15 +9098,15 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>79248</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>220979</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15D205D-64A3-44EC-BF77-CBF2D9EC69F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1277ED1-8266-4C4F-9AF4-436F8454F95F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9141,15 +9141,15 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>79248</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>220979</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A45E536-8818-4B94-8ABC-4EBDB3835B85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A625EB38-F2CD-4E4C-96C0-22DB8CBB6DD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9184,15 +9184,15 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>79248</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>220979</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4892D1A8-BFE9-4721-BF80-7D95E23892BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DAC39A2-BA75-4CC2-B5ED-3EEF19868FD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14383,7 +14383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85082F76-6BDC-4011-8839-B9EE38A7D7B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D940AF-6B92-42FE-913C-1C13EF492772}">
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14393,9 +14393,9 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14424,7 +14424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44928.000150462962</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44928.125150462962</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44928.250150462962</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44928.375150462962</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44928.500150462962</v>
       </c>
@@ -14554,7 +14554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44928.625150462962</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44928.750150462962</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44928.875150462962</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44929.000150462962</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44929.125150462962</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44929.250150462962</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44929.375150462962</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44929.500150462962</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44929.625150462962</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44929.750150462962</v>
       </c>
@@ -14814,7 +14814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44929.875150462962</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44930.000150462962</v>
       </c>
@@ -14866,7 +14866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44930.125162037039</v>
       </c>
@@ -14892,7 +14892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44930.250162037039</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44930.375162037039</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44930.500162037039</v>
       </c>
@@ -14970,7 +14970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44930.625150462962</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44930.750150462962</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44930.875150462962</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44931.000150462962</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44931.125150462962</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44931.250150462962</v>
       </c>
@@ -15126,7 +15126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44931.375150462962</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44931.500150462962</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44931.625150462962</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44931.750150462962</v>
       </c>
@@ -15230,7 +15230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44931.875150462962</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44932.000150462962</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44932.125150462962</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44932.250150462962</v>
       </c>
@@ -15334,7 +15334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44932.375150462962</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44932.500162037039</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44932.625162037039</v>
       </c>
@@ -15412,7 +15412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44932.750162037039</v>
       </c>
@@ -15438,7 +15438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44932.875162037039</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44933.000150462962</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44933.125150462962</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44933.250150462962</v>
       </c>
@@ -15542,7 +15542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44933.375150462962</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44933.500150462962</v>
       </c>
@@ -15594,7 +15594,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44933.625150462962</v>
       </c>
@@ -15620,7 +15620,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44933.750150462962</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44933.875150462962</v>
       </c>
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44934.000150462962</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44934.125150462962</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44934.250150462962</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>3.8000000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44934.375150462962</v>
       </c>
@@ -15776,7 +15776,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44934.500150462962</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44934.625150462962</v>
       </c>
@@ -15828,7 +15828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44934.750150462962</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44934.875162037039</v>
       </c>
@@ -15880,7 +15880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -15920,7 +15920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04842FF7-0374-437B-AECD-3D50D48B06D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EEA502-7083-449B-9920-DD7D2239E74D}">
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15930,9 +15930,9 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44935.000150462962</v>
       </c>
@@ -15987,7 +15987,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44935.125150462962</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44935.250150462962</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44935.375150462962</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44935.500150462962</v>
       </c>
@@ -16091,7 +16091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44935.625150462962</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44935.750150462962</v>
       </c>
@@ -16143,7 +16143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44935.875162037039</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44936.000162037039</v>
       </c>
@@ -16195,7 +16195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44936.125162037039</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44936.250162037039</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44936.375162037039</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44936.500162037039</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44936.625162037039</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44936.750162037039</v>
       </c>
@@ -16351,7 +16351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44936.875162037039</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44937.000162037039</v>
       </c>
@@ -16403,7 +16403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44937.125162037039</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44937.250162037039</v>
       </c>
@@ -16455,7 +16455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44937.375162037039</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44937.500162037039</v>
       </c>
@@ -16507,7 +16507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44937.625150462962</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44937.750150462962</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44937.875150462962</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44938.000150462962</v>
       </c>
@@ -16611,7 +16611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44938.125150462962</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44938.250162037039</v>
       </c>
@@ -16663,7 +16663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44938.375162037039</v>
       </c>
@@ -16689,7 +16689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44938.500162037039</v>
       </c>
@@ -16715,7 +16715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44938.625162037039</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44938.750162037039</v>
       </c>
@@ -16767,7 +16767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44938.875162037039</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44939.000162037039</v>
       </c>
@@ -16819,7 +16819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44939.125162037039</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44939.250162037039</v>
       </c>
@@ -16871,7 +16871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44939.375162037039</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44939.500162037039</v>
       </c>
@@ -16923,7 +16923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44939.625162037039</v>
       </c>
@@ -16949,7 +16949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44939.750162037039</v>
       </c>
@@ -16975,7 +16975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44939.875162037039</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44940.000150462962</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44940.125150462962</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44940.250150462962</v>
       </c>
@@ -17079,7 +17079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44940.375162037039</v>
       </c>
@@ -17105,7 +17105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44940.500162037039</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44940.625162037039</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44940.750162037039</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44940.875162037039</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44941.000162037039</v>
       </c>
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44941.125162037039</v>
       </c>
@@ -17261,7 +17261,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44941.250162037039</v>
       </c>
@@ -17287,7 +17287,7 @@
         <v>3.8000000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44941.375162037039</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44941.500162037039</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44941.625162037039</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44941.750162037039</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44941.875162037039</v>
       </c>
@@ -17417,7 +17417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -17457,7 +17457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F84F6A2-556D-4F67-8709-914CDDCB2D86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3735680E-2722-43EF-AD3E-6CC5FBFE1C70}">
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17467,9 +17467,9 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17498,7 +17498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44942.000150462962</v>
       </c>
@@ -17524,7 +17524,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44942.125150462962</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44942.250150462962</v>
       </c>
@@ -17576,7 +17576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44942.375150462962</v>
       </c>
@@ -17602,7 +17602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44942.500150462962</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44942.625150462962</v>
       </c>
@@ -17654,7 +17654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44942.750162037039</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44942.875162037039</v>
       </c>
@@ -17706,7 +17706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44943.000162037039</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44943.125162037039</v>
       </c>
@@ -17758,7 +17758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44943.250162037039</v>
       </c>
@@ -17784,7 +17784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44943.375162037039</v>
       </c>
@@ -17810,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44943.500162037039</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44943.625162037039</v>
       </c>
@@ -17862,7 +17862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44943.750162037039</v>
       </c>
@@ -17888,7 +17888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44943.875162037039</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44944.000162037039</v>
       </c>
@@ -17940,7 +17940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44944.125162037039</v>
       </c>
@@ -17966,7 +17966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44944.250162037039</v>
       </c>
@@ -17992,7 +17992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44944.375162037039</v>
       </c>
@@ -18018,7 +18018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44944.500162037039</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44944.625150462962</v>
       </c>
@@ -18070,7 +18070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44944.750150462962</v>
       </c>
@@ -18096,7 +18096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44944.875150462962</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44945.000150462962</v>
       </c>
@@ -18148,7 +18148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44945.125162037039</v>
       </c>
@@ -18174,7 +18174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44945.250162037039</v>
       </c>
@@ -18200,7 +18200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44945.375162037039</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44945.500162037039</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44945.625162037039</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44945.750162037039</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44945.875162037039</v>
       </c>
@@ -18330,7 +18330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44946.000162037039</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44946.125162037039</v>
       </c>
@@ -18382,7 +18382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44946.250162037039</v>
       </c>
@@ -18408,7 +18408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44946.375162037039</v>
       </c>
@@ -18434,7 +18434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44946.500162037039</v>
       </c>
@@ -18460,7 +18460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44946.625162037039</v>
       </c>
@@ -18486,7 +18486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44946.750162037039</v>
       </c>
@@ -18512,7 +18512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44946.875162037039</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44947.000150462962</v>
       </c>
@@ -18564,7 +18564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44947.125150462962</v>
       </c>
@@ -18590,7 +18590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44947.250150462962</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44947.375150462962</v>
       </c>
@@ -18642,7 +18642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44947.500162037039</v>
       </c>
@@ -18668,7 +18668,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44947.625162037039</v>
       </c>
@@ -18694,7 +18694,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44947.750162037039</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44947.875162037039</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44948.000162037039</v>
       </c>
@@ -18772,7 +18772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44948.125162037039</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44948.250162037039</v>
       </c>
@@ -18824,7 +18824,7 @@
         <v>3.8000000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44948.375162037039</v>
       </c>
@@ -18850,7 +18850,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44948.500162037039</v>
       </c>
@@ -18876,7 +18876,7 @@
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44948.625162037039</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44948.750162037039</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44948.875162037039</v>
       </c>
@@ -18954,7 +18954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -18994,7 +18994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D3F713-2529-41D7-86E9-0D313A33E3D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7BCBAB-7B29-4AD2-AE9E-CDDF203B9765}">
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -19004,9 +19004,9 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19035,7 +19035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44949.000150462962</v>
       </c>
@@ -19061,7 +19061,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44949.125150462962</v>
       </c>
@@ -19087,7 +19087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44949.250150462962</v>
       </c>
@@ -19113,7 +19113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44949.375150462962</v>
       </c>
@@ -19139,7 +19139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44949.500150462962</v>
       </c>
@@ -19165,7 +19165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44949.625150462962</v>
       </c>
@@ -19191,7 +19191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44949.750150462962</v>
       </c>
@@ -19217,7 +19217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44949.875150462962</v>
       </c>
@@ -19243,7 +19243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44950.000150462962</v>
       </c>
@@ -19269,7 +19269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44950.125150462962</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44950.250162037039</v>
       </c>
@@ -19321,7 +19321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44950.375162037039</v>
       </c>
@@ -19347,7 +19347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44950.500162037039</v>
       </c>
@@ -19373,7 +19373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44950.625162037039</v>
       </c>
@@ -19399,7 +19399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44950.750162037039</v>
       </c>
@@ -19425,7 +19425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44950.875162037039</v>
       </c>
@@ -19451,7 +19451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44951.000162037039</v>
       </c>
@@ -19477,7 +19477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44951.125162037039</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44951.250162037039</v>
       </c>
@@ -19529,7 +19529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44951.375162037039</v>
       </c>
@@ -19555,7 +19555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44951.500162037039</v>
       </c>
@@ -19581,7 +19581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44951.625150462962</v>
       </c>
@@ -19607,7 +19607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44951.750150462962</v>
       </c>
@@ -19633,7 +19633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44951.875150462962</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44952.000150462962</v>
       </c>
@@ -19685,7 +19685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44952.125150462962</v>
       </c>
@@ -19711,7 +19711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44952.250150462962</v>
       </c>
@@ -19737,7 +19737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44952.375150462962</v>
       </c>
@@ -19763,7 +19763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44952.500150462962</v>
       </c>
@@ -19789,7 +19789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44952.625150462962</v>
       </c>
@@ -19815,7 +19815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44952.750162037039</v>
       </c>
@@ -19841,7 +19841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44952.875162037039</v>
       </c>
@@ -19867,7 +19867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44953.000162037039</v>
       </c>
@@ -19893,7 +19893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44953.125162037039</v>
       </c>
@@ -19919,7 +19919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44953.250162037039</v>
       </c>
@@ -19945,7 +19945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44953.375162037039</v>
       </c>
@@ -19971,7 +19971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44953.500162037039</v>
       </c>
@@ -19997,7 +19997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44953.625162037039</v>
       </c>
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44953.750162037039</v>
       </c>
@@ -20049,7 +20049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44953.875162037039</v>
       </c>
@@ -20075,7 +20075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44954.000150462962</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44954.125150462962</v>
       </c>
@@ -20127,7 +20127,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44954.250150462962</v>
       </c>
@@ -20153,7 +20153,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44954.375150462962</v>
       </c>
@@ -20179,7 +20179,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44954.500150462962</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44954.625150462962</v>
       </c>
@@ -20231,7 +20231,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44954.750150462962</v>
       </c>
@@ -20257,7 +20257,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44954.875150462962</v>
       </c>
@@ -20283,7 +20283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44955.000162037039</v>
       </c>
@@ -20309,7 +20309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44955.125162037039</v>
       </c>
@@ -20335,7 +20335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44955.250162037039</v>
       </c>
@@ -20361,7 +20361,7 @@
         <v>3.8000000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44955.375162037039</v>
       </c>
@@ -20387,7 +20387,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44955.500162037039</v>
       </c>
@@ -20413,7 +20413,7 @@
         <v>1.9000000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44955.625162037039</v>
       </c>
@@ -20439,7 +20439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44955.750162037039</v>
       </c>
@@ -20465,7 +20465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44955.875162037039</v>
       </c>
@@ -20491,7 +20491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -20531,12 +20531,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE66238-E649-4A98-AAB7-72EE8007BEBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10D0A25-42BA-4D68-AC17-26A293E9A74D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
